--- a/Arizona Diamondbacks.xlsx
+++ b/Arizona Diamondbacks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,7 +22,13 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>ID</t>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>ARI</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,442 +429,502 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1998</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>3610290</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
         <v>371214</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>81612</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>32347000</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1999</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>3019654</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>384693</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>78098</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>68703999</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2000</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>2942251</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4">
         <v>344610</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>65156</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>81027833</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>2736451</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>92</v>
+      </c>
+      <c r="F5">
         <v>368018</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>65996</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>85082999</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>3198977</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>98</v>
+      </c>
+      <c r="F6">
         <v>462132</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>78771</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>102819999</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>2805542</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>84</v>
+      </c>
+      <c r="F7">
         <v>371125</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>60425</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>80657000</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>2519560</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="F8">
         <v>454546</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>70963</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>69780750</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2005</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>2059424</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>77</v>
+      </c>
+      <c r="F9">
         <v>444879</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>66852</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>62329166</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>2091685</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>76</v>
+      </c>
+      <c r="F10">
         <v>449995</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>65156</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>59684226</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>2325249</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
         <v>507570</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>71008</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>52067546</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>2509924</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>82</v>
+      </c>
+      <c r="F12">
         <v>531146</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>71848</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>66202712</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>2009</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>2128765</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
         <v>515437</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>67496</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>73115666</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>2010</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>2056941</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>65</v>
+      </c>
+      <c r="F14">
         <v>536575</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>68276</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>60718166</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>2105432</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>94</v>
+      </c>
+      <c r="F15">
         <v>579636</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>71712</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>53639833</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>2177617</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>81</v>
+      </c>
+      <c r="F16">
         <v>602289</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>72522</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>73804833</v>
       </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>2134795</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>81</v>
+      </c>
+      <c r="F17">
         <v>694695</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>81480</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>90132000</v>
       </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>2073730</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>64</v>
+      </c>
+      <c r="F18">
         <v>623207</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>71396</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>97861500</v>
       </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2015</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>2080145</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>79</v>
+      </c>
+      <c r="F19">
         <v>718417</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>80504</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>61834000</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2016</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>2036216</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>69</v>
+      </c>
+      <c r="F20">
         <v>665301</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>72956</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>87439063</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
